--- a/Obstacles List.xlsx
+++ b/Obstacles List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>RotaterLeft</t>
   </si>
@@ -100,6 +100,39 @@
   </si>
   <si>
     <t>BallThrowerRightFake</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>RotaterBehaviour</t>
+  </si>
+  <si>
+    <t>SliderBehaviour</t>
+  </si>
+  <si>
+    <t>DoorBehaviour</t>
+  </si>
+  <si>
+    <t>PullyBehaviour</t>
+  </si>
+  <si>
+    <t>BombBehaviour</t>
+  </si>
+  <si>
+    <t>RopeBehaviour</t>
+  </si>
+  <si>
+    <t>RotateSlideBehaviour</t>
+  </si>
+  <si>
+    <t>PuncherBehaviour</t>
+  </si>
+  <si>
+    <t>GearBehaviour</t>
+  </si>
+  <si>
+    <t>BallThrowerBehaviour</t>
   </si>
 </sst>
 </file>
@@ -115,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,9 +180,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,19 +485,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -467,8 +508,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -478,8 +522,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -489,8 +536,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -500,8 +550,11 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -511,8 +564,11 @@
       <c r="C5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -522,8 +578,11 @@
       <c r="C6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -533,8 +592,11 @@
       <c r="C7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -544,8 +606,11 @@
       <c r="C8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -555,8 +620,11 @@
       <c r="C9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -566,8 +634,11 @@
       <c r="C10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -577,8 +648,11 @@
       <c r="C11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -588,8 +662,11 @@
       <c r="C12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -599,8 +676,11 @@
       <c r="C13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -610,8 +690,11 @@
       <c r="C14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -621,8 +704,11 @@
       <c r="C15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -632,8 +718,11 @@
       <c r="C16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -643,8 +732,11 @@
       <c r="C17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -654,8 +746,11 @@
       <c r="C18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -665,8 +760,11 @@
       <c r="C19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -676,8 +774,11 @@
       <c r="C20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -687,8 +788,11 @@
       <c r="C21">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -698,8 +802,11 @@
       <c r="C22">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -709,8 +816,11 @@
       <c r="C23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -720,8 +830,11 @@
       <c r="C24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -731,8 +844,11 @@
       <c r="C25">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -741,6 +857,9 @@
       </c>
       <c r="C26">
         <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Obstacles List.xlsx
+++ b/Obstacles List.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>RotaterLeft</t>
   </si>
@@ -133,13 +133,31 @@
   </si>
   <si>
     <t>BallThrowerBehaviour</t>
+  </si>
+  <si>
+    <t>MagneticSliderLeft</t>
+  </si>
+  <si>
+    <t>MagneticSliderRight</t>
+  </si>
+  <si>
+    <t>MagneticBallBehaviour</t>
+  </si>
+  <si>
+    <t>MagneticRepellerLeft</t>
+  </si>
+  <si>
+    <t>magneticRepellerBehaviour</t>
+  </si>
+  <si>
+    <t>MagneticRepellerRight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +165,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,12 +182,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,7 +201,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,8 +880,65 @@
         <v>38</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Obstacles List.xlsx
+++ b/Obstacles List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>RotaterLeft</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>MagneticRepellerRight</t>
+  </si>
+  <si>
+    <t>Beeds</t>
+  </si>
+  <si>
+    <t>BeedsFake</t>
+  </si>
+  <si>
+    <t>BeedsBehaviour</t>
   </si>
 </sst>
 </file>
@@ -503,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,13 +712,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -717,13 +726,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -731,13 +740,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,13 +754,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,13 +768,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,13 +782,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,13 +796,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -801,13 +810,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -815,13 +824,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -829,13 +838,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -843,13 +852,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -857,7 +866,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -871,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -885,13 +894,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,13 +908,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -913,26 +922,54 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Obstacles List.xlsx
+++ b/Obstacles List.xlsx
@@ -181,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +191,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,10 +213,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C26"/>
+      <selection activeCell="E29" sqref="E29:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +532,7 @@
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -539,7 +546,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -552,8 +559,9 @@
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -566,8 +574,9 @@
       <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -580,8 +589,9 @@
       <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -594,8 +604,9 @@
       <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -608,8 +619,9 @@
       <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -622,8 +634,9 @@
       <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -636,8 +649,9 @@
       <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -650,8 +664,9 @@
       <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -664,8 +679,9 @@
       <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -678,8 +694,9 @@
       <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -692,8 +709,9 @@
       <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -706,8 +724,9 @@
       <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -720,8 +739,9 @@
       <c r="D14" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -734,8 +754,9 @@
       <c r="D15" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -748,8 +769,9 @@
       <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -762,8 +784,9 @@
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -776,8 +799,9 @@
       <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -790,8 +814,9 @@
       <c r="D19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -804,8 +829,9 @@
       <c r="D20" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -818,8 +844,9 @@
       <c r="D21" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -832,8 +859,9 @@
       <c r="D22" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -846,8 +874,9 @@
       <c r="D23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -860,8 +889,9 @@
       <c r="D24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -874,8 +904,9 @@
       <c r="D25" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -888,8 +919,9 @@
       <c r="D26" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -902,8 +934,9 @@
       <c r="D27" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -916,8 +949,9 @@
       <c r="D28" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -930,8 +964,9 @@
       <c r="D29" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -944,8 +979,9 @@
       <c r="D30" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -958,8 +994,9 @@
       <c r="D31" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -972,6 +1009,7 @@
       <c r="D32" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="E32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
